--- a/results/exp3.xlsx
+++ b/results/exp3.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam Fragkiadakis\Workspace\liver-baseline-registration\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D54463-93EF-45E8-A41C-A0885A9E24C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8137003-1CFD-488B-9FED-ED6A08115EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1485" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9795" yWindow="4185" windowWidth="16515" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="liver" sheetId="1" r:id="rId1"/>
-    <sheet name="tumor" sheetId="2" r:id="rId2"/>
+    <sheet name="liver.nii.gz" sheetId="1" r:id="rId1"/>
+    <sheet name="tumor.nii.gz" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -482,14 +482,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" activeCellId="1" sqref="C14 D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -509,13 +510,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.34548000000000001</v>
+        <v>0.32956999999999997</v>
       </c>
       <c r="C2">
-        <v>0.85299999999999998</v>
+        <v>0.84455999999999998</v>
       </c>
       <c r="D2">
-        <v>0.89692000000000005</v>
+        <v>0.89176999999999995</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -523,13 +524,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>2.8979999999999999E-2</v>
+        <v>2.6280000000000001E-2</v>
       </c>
       <c r="C3">
-        <v>0.90073999999999999</v>
+        <v>0.90146000000000004</v>
       </c>
       <c r="D3">
-        <v>0.87727999999999995</v>
+        <v>0.88371999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -537,13 +538,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.21063999999999999</v>
+        <v>0.20105999999999999</v>
       </c>
       <c r="C4">
-        <v>0.90602000000000005</v>
+        <v>0.90036000000000005</v>
       </c>
       <c r="D4">
-        <v>0.91642999999999997</v>
+        <v>0.91690000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -551,13 +552,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.33005000000000001</v>
+        <v>0.32612999999999998</v>
       </c>
       <c r="C5">
-        <v>0.94269999999999998</v>
+        <v>0.94055</v>
       </c>
       <c r="D5">
-        <v>0.93045999999999995</v>
+        <v>0.93484999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -568,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.91259000000000001</v>
+        <v>0.88209000000000004</v>
       </c>
       <c r="D6">
-        <v>0.92869000000000002</v>
+        <v>0.93730999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -579,13 +580,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>2.1659999999999999E-2</v>
+        <v>1.78E-2</v>
       </c>
       <c r="C7">
-        <v>0.88236999999999999</v>
+        <v>0.87438000000000005</v>
       </c>
       <c r="D7">
-        <v>0.85360999999999998</v>
+        <v>0.85080999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -593,13 +594,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.34647</v>
+        <v>0.33789999999999998</v>
       </c>
       <c r="C8">
-        <v>0.79917000000000005</v>
+        <v>0.80693000000000004</v>
       </c>
       <c r="D8">
-        <v>0.89878999999999998</v>
+        <v>0.89898</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -607,13 +608,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.17655000000000001</v>
+        <v>0.16142999999999999</v>
       </c>
       <c r="C9">
-        <v>0.87787000000000004</v>
+        <v>0.87773999999999996</v>
       </c>
       <c r="D9">
-        <v>0.87527999999999995</v>
+        <v>0.87326000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -621,13 +622,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.39548</v>
+        <v>0.38966000000000001</v>
       </c>
       <c r="C10">
-        <v>0.86338999999999999</v>
+        <v>0.86460000000000004</v>
       </c>
       <c r="D10">
-        <v>0.87312999999999996</v>
+        <v>0.87356</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -635,13 +636,13 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.10351</v>
+        <v>9.8199999999999996E-2</v>
       </c>
       <c r="C11">
-        <v>0.80179</v>
+        <v>0.80364999999999998</v>
       </c>
       <c r="D11">
-        <v>0.88780999999999999</v>
+        <v>0.90285000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -652,10 +653,10 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.79917000000000005</v>
+        <v>0.80364999999999998</v>
       </c>
       <c r="D12">
-        <v>0.85360999999999998</v>
+        <v>0.85080999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -663,13 +664,13 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0.39548</v>
+        <v>0.38966000000000001</v>
       </c>
       <c r="C13">
-        <v>0.94269999999999998</v>
+        <v>0.94055</v>
       </c>
       <c r="D13">
-        <v>0.93045999999999995</v>
+        <v>0.93730999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -677,13 +678,13 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0.19619166666666671</v>
+        <v>0.18980749999999999</v>
       </c>
       <c r="C14" s="2">
-        <v>0.87345916666666668</v>
+        <v>0.87004333333333328</v>
       </c>
       <c r="D14" s="2">
-        <v>0.89353916666666666</v>
+        <v>0.89601083333333331</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -691,13 +692,13 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>0.19619166666666671</v>
+        <v>0.18980749999999999</v>
       </c>
       <c r="C15">
-        <v>0.87787000000000004</v>
+        <v>0.87438000000000005</v>
       </c>
       <c r="D15">
-        <v>0.89353916666666666</v>
+        <v>0.89601083333333331</v>
       </c>
     </row>
   </sheetData>
@@ -710,14 +711,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -737,13 +739,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.15901999999999999</v>
+        <v>0.13816000000000001</v>
       </c>
       <c r="C2">
-        <v>0.78841000000000006</v>
+        <v>0.78266000000000002</v>
       </c>
       <c r="D2">
-        <v>0.87555000000000005</v>
+        <v>0.87473000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -754,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.90817999999999999</v>
+        <v>0.90981999999999996</v>
       </c>
       <c r="D3">
-        <v>0.88729000000000002</v>
+        <v>0.89295000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -768,10 +770,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.85673999999999995</v>
+        <v>0.80013999999999996</v>
       </c>
       <c r="D4">
-        <v>0.74504999999999999</v>
+        <v>0.74443999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -779,13 +781,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.25040000000000001</v>
+        <v>0.24221999999999999</v>
       </c>
       <c r="C5">
-        <v>0.96043999999999996</v>
+        <v>0.95806000000000002</v>
       </c>
       <c r="D5">
-        <v>0.92971000000000004</v>
+        <v>0.93389</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -796,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.84172999999999998</v>
+        <v>0.83333999999999997</v>
       </c>
       <c r="D6">
-        <v>0.90651000000000004</v>
+        <v>0.92549000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -810,10 +812,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.58991000000000005</v>
+        <v>0.56569000000000003</v>
       </c>
       <c r="D7">
-        <v>6.6570000000000004E-2</v>
+        <v>4.9869999999999998E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -824,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.66605000000000003</v>
+        <v>0.67168000000000005</v>
       </c>
       <c r="D8">
-        <v>0.67535000000000001</v>
+        <v>0.67520999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -835,13 +837,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.11815000000000001</v>
+        <v>0.10535</v>
       </c>
       <c r="C9">
-        <v>0.80911</v>
+        <v>0.80164000000000002</v>
       </c>
       <c r="D9">
-        <v>0.80425999999999997</v>
+        <v>0.79901999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -849,13 +851,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.26565</v>
+        <v>0.25814999999999999</v>
       </c>
       <c r="C10">
-        <v>0.79603999999999997</v>
+        <v>0.80406999999999995</v>
       </c>
       <c r="D10">
-        <v>0.80940999999999996</v>
+        <v>0.82360999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -863,13 +865,13 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>3.0000000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.63341000000000003</v>
+        <v>0.65959999999999996</v>
       </c>
       <c r="D11">
-        <v>0.65896999999999994</v>
+        <v>0.65358000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -880,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.58991000000000005</v>
+        <v>0.56569000000000003</v>
       </c>
       <c r="D12">
-        <v>6.6570000000000004E-2</v>
+        <v>4.9869999999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -891,13 +893,13 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0.26565</v>
+        <v>0.25814999999999999</v>
       </c>
       <c r="C13">
-        <v>0.96043999999999996</v>
+        <v>0.95806000000000002</v>
       </c>
       <c r="D13">
-        <v>0.92971000000000004</v>
+        <v>0.93389</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -905,13 +907,13 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>8.8241666666666663E-2</v>
+        <v>8.3502499999999993E-2</v>
       </c>
       <c r="C14" s="2">
-        <v>0.78336416666666653</v>
+        <v>0.77587083333333329</v>
       </c>
       <c r="D14" s="2">
-        <v>0.69624583333333323</v>
+        <v>0.69637916666666666</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -919,13 +921,13 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>3.0000000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0.79603999999999997</v>
+        <v>0.80013999999999996</v>
       </c>
       <c r="D15">
-        <v>0.80425999999999997</v>
+        <v>0.79901999999999995</v>
       </c>
     </row>
   </sheetData>

--- a/results/exp3.xlsx
+++ b/results/exp3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam Fragkiadakis\Workspace\liver-baseline-registration\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8137003-1CFD-488B-9FED-ED6A08115EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A5C3AC-3441-4F9A-91F9-9FDCAE310C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9795" yWindow="4185" windowWidth="16515" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9795" yWindow="4185" windowWidth="16515" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="liver.nii.gz" sheetId="1" r:id="rId1"/>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
